--- a/public/data/profit/profit_table_guinea.xlsx
+++ b/public/data/profit/profit_table_guinea.xlsx
@@ -1245,61 +1245,61 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-88.84</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-89.01</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-121.85</v>
+        <v>-28.08</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-111.57</v>
+        <v>37.81</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-272.82</v>
+        <v>-47.49</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-279.65</v>
+        <v>-56.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>-216.1</v>
+        <v>160.65</v>
       </c>
       <c r="R2" t="n">
-        <v>-123.21</v>
+        <v>-36.36</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-285.18</v>
+        <v>-64.03</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-88.7</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-252.64</v>
+        <v>-20.62</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-113.57</v>
+        <v>25.71</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-58.95</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1334,52 +1334,52 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-135.53</v>
+        <v>-24.77</v>
       </c>
       <c r="K3" t="n">
-        <v>-184.93</v>
+        <v>-30.06</v>
       </c>
       <c r="L3" t="n">
-        <v>-10.71</v>
+        <v>99.12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-260.8</v>
+        <v>-53.31</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-268.56</v>
+        <v>-62.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>-158.43</v>
+        <v>245.31</v>
       </c>
       <c r="R3" t="n">
-        <v>-143.96</v>
+        <v>-37.7</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-277.82</v>
+        <v>-72.66</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-58.91</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-231.53</v>
+        <v>-19.65</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-129.31</v>
+        <v>21.33</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1405,61 +1405,61 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-60.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-60.98</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-122.5</v>
+        <v>-29.22</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.54</v>
+        <v>101.57</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-188.23</v>
+        <v>-60.37</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-198.35</v>
+        <v>-74.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>-141.39</v>
+        <v>110.62</v>
       </c>
       <c r="R4" t="n">
-        <v>-125.9</v>
+        <v>-37.71</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-205.96</v>
+        <v>-85.8</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-59.98</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-165</v>
+        <v>-27.84</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-104.64</v>
+        <v>18.09</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-38.88</v>
+        <v>24.56</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1494,52 +1494,52 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-88.92</v>
+        <v>-22.89</v>
       </c>
       <c r="K5" t="n">
-        <v>-121.2</v>
+        <v>-82.04</v>
       </c>
       <c r="L5" t="n">
-        <v>388</v>
+        <v>450.97</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-95.54</v>
+        <v>-33.9</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-110.09</v>
+        <v>-51.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1018.22</v>
+        <v>1074.92</v>
       </c>
       <c r="R5" t="n">
-        <v>-111.85</v>
+        <v>-53.85</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-128.31</v>
+        <v>-71.55</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-31.86</v>
+        <v>77.68</v>
       </c>
       <c r="W5" t="n">
-        <v>-38.71</v>
+        <v>33.81</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-24.1</v>
+        <v>111.51</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.26</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1574,25 +1574,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-25.11</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.29</v>
+        <v>53.44</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-24.71</v>
+        <v>-14.71</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-27.22</v>
+        <v>-24.57</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-28.97</v>
+        <v>-32.77</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-7.78</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-19.55</v>
+        <v>8.38</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-12.32</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-864.48</v>
+        <v>-427.72</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-795.91</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-831.78</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-797.35</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-831.95</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-828.9</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-21.43</v>
+        <v>84.27</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1734,52 +1734,52 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-81.83</v>
+        <v>-51.59</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>612.26</v>
+        <v>766.04</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-54.36</v>
+        <v>-28.63</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-68.1</v>
+        <v>-50.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>872.85</v>
+        <v>2095.38</v>
       </c>
       <c r="R8" t="n">
-        <v>-119.67</v>
+        <v>-117.48</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-92.44</v>
+        <v>-91.54</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>13.95</v>
+        <v>153.05</v>
       </c>
       <c r="W8" t="n">
-        <v>71</v>
+        <v>187.06</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.39</v>
+        <v>462.62</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.32</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1814,52 +1814,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-11.87</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.36</v>
+        <v>79.99</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.42</v>
+        <v>24.73</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-15</v>
+        <v>9.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>77.32</v>
+        <v>779.61</v>
       </c>
       <c r="R9" t="n">
-        <v>-19.86</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-16.84</v>
+        <v>-9.52</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-3.45</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.26</v>
+        <v>194.02</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.17</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1885,61 +1885,61 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-54.44</v>
+        <v>47.13</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-150.13</v>
+        <v>-51.9</v>
       </c>
       <c r="J10" t="n">
-        <v>-136.47</v>
+        <v>-128.75</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1237.46</v>
+        <v>809.19</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-75.71</v>
+        <v>-50.87</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-137.25</v>
+        <v>-138.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1501.39</v>
+        <v>2229.2</v>
       </c>
       <c r="R10" t="n">
-        <v>-158.27</v>
+        <v>-160.84</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-153.72</v>
+        <v>-160.67</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>27.42</v>
+        <v>193.91</v>
       </c>
       <c r="W10" t="n">
-        <v>80.68</v>
+        <v>175.3</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>282.41</v>
+        <v>581.03</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1965,61 +1965,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-57.76</v>
+        <v>58.46</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-128.96</v>
+        <v>-49.15</v>
       </c>
       <c r="J11" t="n">
-        <v>-186.7</v>
+        <v>-105.82</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2339.86</v>
+        <v>1410.26</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-95.44</v>
+        <v>-28.28</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-241.44</v>
+        <v>-173.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2745.8</v>
+        <v>2799.05</v>
       </c>
       <c r="R11" t="n">
-        <v>-250.95</v>
+        <v>-178.28</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-253.57</v>
+        <v>-185.88</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>35.33</v>
+        <v>211.43</v>
       </c>
       <c r="W11" t="n">
-        <v>87.39</v>
+        <v>155.62</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>445.24</v>
+        <v>612.42</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2042,64 +2042,64 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-35.78</v>
+        <v>5.52</v>
       </c>
       <c r="G12" t="n">
-        <v>-55.94</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-60.81</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-99.55</v>
+        <v>-46.38</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>106.03</v>
+        <v>168.04</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-92.03</v>
+        <v>-56.43</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-110.98</v>
+        <v>-85.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>401.2</v>
+        <v>583.32</v>
       </c>
       <c r="R12" t="n">
-        <v>-102.5</v>
+        <v>-54.97</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-114.52</v>
+        <v>-91.04</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-51.97</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-58.69</v>
+        <v>-4.82</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-17.64</v>
+        <v>139.54</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -2125,61 +2125,61 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-100.39</v>
+        <v>45.95</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-148.24</v>
+        <v>-70.73</v>
       </c>
       <c r="J13" t="n">
-        <v>-235.96</v>
+        <v>-125.09</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1633.66</v>
+        <v>1132.94</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-165.96</v>
+        <v>-86.02</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-295.44</v>
+        <v>-212.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>2315.35</v>
+        <v>2346.66</v>
       </c>
       <c r="R13" t="n">
-        <v>-284.19</v>
+        <v>-177.92</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-308.84</v>
+        <v>-225.65</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-25.91</v>
+        <v>231.39</v>
       </c>
       <c r="W13" t="n">
-        <v>-9.08</v>
+        <v>78.4</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>261.52</v>
+        <v>421.58</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2205,61 +2205,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-49.43</v>
+        <v>40.01</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-114.94</v>
+        <v>-39.97</v>
       </c>
       <c r="J14" t="n">
-        <v>-74.83</v>
+        <v>-128.65</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>193</v>
+        <v>234.78</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-76.99</v>
+        <v>-48.25</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-91.71</v>
+        <v>-72.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>385.73</v>
+        <v>657.33</v>
       </c>
       <c r="R14" t="n">
-        <v>-75.1</v>
+        <v>-128.49</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-100.62</v>
+        <v>-83.38</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.23</v>
+        <v>146.32</v>
       </c>
       <c r="W14" t="n">
-        <v>-36.03</v>
+        <v>22.94</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.66</v>
+        <v>564.95</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>21.5</v>
+        <v>52.26</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2300,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.16</v>
+        <v>54.98</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-28.11</v>
+        <v>-3.32</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-33.4</v>
+        <v>-23.1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-35.37</v>
+        <v>-31.17</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-26.43</v>
+        <v>-7.78</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2380,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-8.2</v>
+        <v>12.77</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-10.59</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-10.87</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-10.98</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-9.88</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2445,61 +2445,61 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-77.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-77.71</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-205.52</v>
+        <v>-28.77</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47</v>
+        <v>178.06</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-302.02</v>
+        <v>-57.61</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-314.69</v>
+        <v>-73.01</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.23</v>
+        <v>482.5</v>
       </c>
       <c r="R17" t="n">
-        <v>-212.48</v>
+        <v>-42.76</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-326.29</v>
+        <v>-87.32</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-77.2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-261.67</v>
+        <v>-8.63</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-168.11</v>
+        <v>43.55</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2525,61 +2525,61 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-40.52</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-41.95</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-102.93</v>
+        <v>-29.72</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-113.17</v>
+        <v>20.96</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-252.59</v>
+        <v>-51.39</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-256.71</v>
+        <v>-58.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>-303.42</v>
+        <v>142.21</v>
       </c>
       <c r="R18" t="n">
-        <v>-106.26</v>
+        <v>-39.67</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-271.27</v>
+        <v>-67.61</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-38.83</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-249.09</v>
+        <v>-26.45</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-83.84</v>
+        <v>27.75</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2605,61 +2605,61 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-45.57</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-48.92</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-142.92</v>
+        <v>-45.76</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>29.55</v>
+        <v>162.9</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-302</v>
+        <v>-62.81</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-307.48</v>
+        <v>-68.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>177.76</v>
+        <v>485.47</v>
       </c>
       <c r="R19" t="n">
-        <v>-147.46</v>
+        <v>-56.93</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-342.12</v>
+        <v>-87.59</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-44.73</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-269.46</v>
+        <v>-7.07</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-103.47</v>
+        <v>65.14</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2685,61 +2685,61 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-57.76</v>
+        <v>68.91</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-86.87</v>
+        <v>-22.92</v>
       </c>
       <c r="J20" t="n">
-        <v>-128.05</v>
+        <v>-30.88</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1266.57</v>
+        <v>1075.03</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-75.5</v>
+        <v>-1.54</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-120.3</v>
+        <v>-46.88</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.87</v>
+        <v>2106.9</v>
       </c>
       <c r="R20" t="n">
-        <v>-183.06</v>
+        <v>-91.38</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-167.59</v>
+        <v>-94.7</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-16.06</v>
+        <v>186.01</v>
       </c>
       <c r="W20" t="n">
-        <v>54.6</v>
+        <v>131.23</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>131.66</v>
+        <v>254.91</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2765,61 +2765,61 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-25.19</v>
+        <v>131.43</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-38.57</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-93.16</v>
+        <v>-1.02</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>728.55</v>
+        <v>710.29</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-91.79</v>
+        <v>-9.82</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-108.92</v>
+        <v>-27.01</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-117.35</v>
+        <v>-54.89</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-139.7</v>
+        <v>-57.95</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14.54</v>
+        <v>339.31</v>
       </c>
       <c r="W21" t="n">
-        <v>-10.02</v>
+        <v>72.92</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.57</v>
+        <v>229.06</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.31</v>
+        <v>447.62</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2854,52 +2854,52 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-22.79</v>
+        <v>31.09</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>59.76</v>
+        <v>209.12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.36</v>
+        <v>130.56</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-8.01</v>
+        <v>76.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1202.49</v>
+        <v>1228.1</v>
       </c>
       <c r="R22" t="n">
-        <v>-51.24</v>
+        <v>-114.75</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-14.15</v>
+        <v>50.88</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>30.98</v>
+        <v>284.83</v>
       </c>
       <c r="W22" t="n">
-        <v>32.72</v>
+        <v>254.15</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.05</v>
+        <v>812.49</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>23.82</v>
+        <v>321.93</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2934,52 +2934,52 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-35.06</v>
+        <v>14.98</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>559.1</v>
+        <v>561.41</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>18.68</v>
+        <v>88.37</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-22.22</v>
+        <v>24.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>358.6</v>
+        <v>633.11</v>
       </c>
       <c r="R23" t="n">
-        <v>-67.23</v>
+        <v>-71.87</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-39.01</v>
+        <v>-0.83</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>33.96</v>
+        <v>339.61</v>
       </c>
       <c r="W23" t="n">
-        <v>92.6</v>
+        <v>206.79</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>124.93</v>
+        <v>480.81</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-29.04</v>
+        <v>91.36</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3014,52 +3014,52 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-105</v>
+        <v>-45.21</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1175</v>
+        <v>983.42</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-48.85</v>
+        <v>7.75</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-103.39</v>
+        <v>-46.88</v>
       </c>
       <c r="Q24" t="n">
-        <v>877.29</v>
+        <v>991.38</v>
       </c>
       <c r="R24" t="n">
-        <v>-146.35</v>
+        <v>-104.49</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-134.36</v>
+        <v>-78.21</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>4.44</v>
+        <v>177.69</v>
       </c>
       <c r="W24" t="n">
-        <v>75.85</v>
+        <v>136.7</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.43</v>
+        <v>271.88</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-24.36</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3094,52 +3094,52 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-46</v>
+        <v>-16.36</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>97.73</v>
+        <v>195.69</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-40</v>
+        <v>-1.35</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-54.29</v>
+        <v>-32.15</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.15</v>
+        <v>249.7</v>
       </c>
       <c r="R25" t="n">
-        <v>-62.45</v>
+        <v>-68.26</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-60.95</v>
+        <v>-45.49</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-21.2</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-6.46</v>
+        <v>68.5</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.33</v>
+        <v>155.53</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3174,52 +3174,52 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-23.7</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.5</v>
+        <v>86.67</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-18.51</v>
+        <v>12.23</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-27.52</v>
+        <v>-25.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>139.35</v>
+        <v>465.75</v>
       </c>
       <c r="R26" t="n">
-        <v>-34.76</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-32.1</v>
+        <v>-42.04</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-3.91</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-3.24</v>
+        <v>66.68</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>64.12</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>71.65</v>
+        <v>250.76</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3254,52 +3254,52 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-32.12</v>
+        <v>44.77</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1233.94</v>
+        <v>1277.46</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>113.75</v>
+        <v>159.26</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>9.86</v>
+        <v>53.19</v>
       </c>
       <c r="Q27" t="n">
-        <v>2238.27</v>
+        <v>2277.55</v>
       </c>
       <c r="R27" t="n">
-        <v>-137.26</v>
+        <v>-82.62</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-61.51</v>
+        <v>-19.2</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>238.98</v>
+        <v>543.8</v>
       </c>
       <c r="W27" t="n">
-        <v>325.42</v>
+        <v>393.18</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>479.72</v>
+        <v>655.84</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3325,61 +3325,61 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.38</v>
+        <v>124.85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-77.67</v>
+        <v>-13.19</v>
       </c>
       <c r="J28" t="n">
-        <v>-90.8</v>
+        <v>-16.41</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1906.15</v>
+        <v>1475.9</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>41.72</v>
+        <v>93.45</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-34.41</v>
+        <v>12.35</v>
       </c>
       <c r="Q28" t="n">
-        <v>3501.23</v>
+        <v>3602.87</v>
       </c>
       <c r="R28" t="n">
-        <v>-181.22</v>
+        <v>-118.72</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-103.83</v>
+        <v>-62.06</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>131.31</v>
+        <v>306.46</v>
       </c>
       <c r="W28" t="n">
-        <v>233.38</v>
+        <v>311</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>497.25</v>
+        <v>652.68</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3405,61 +3405,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.66</v>
+        <v>172.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-37.75</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-81.99</v>
+        <v>-10.32</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1493.71</v>
+        <v>1396.94</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>57.08</v>
+        <v>104.15</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-38.57</v>
+        <v>8.27</v>
       </c>
       <c r="Q29" t="n">
-        <v>1036.09</v>
+        <v>1223.64</v>
       </c>
       <c r="R29" t="n">
-        <v>-165.22</v>
+        <v>-99.98</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-101.03</v>
+        <v>-54.52</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>117.14</v>
+        <v>329.82</v>
       </c>
       <c r="W29" t="n">
-        <v>272.14</v>
+        <v>324.13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.6</v>
+        <v>403.93</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3482,64 +3482,64 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-70.74</v>
+        <v>-22.17</v>
       </c>
       <c r="G30" t="n">
-        <v>-63.34</v>
+        <v>-8.07</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-44.51</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-90.52</v>
+        <v>-77.57</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>117.48</v>
+        <v>163.74</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-150.19</v>
+        <v>-83.45</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-174.71</v>
+        <v>-115.72</v>
       </c>
       <c r="Q30" t="n">
-        <v>-77.97</v>
+        <v>46.68</v>
       </c>
       <c r="R30" t="n">
-        <v>-95.67</v>
+        <v>-91.55</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-184.27</v>
+        <v>-126.93</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>-40.46</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-108.58</v>
+        <v>-27.92</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-54.22</v>
+        <v>75.23</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3565,61 +3565,61 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-44.81</v>
+        <v>46.28</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-75.64</v>
+        <v>-32</v>
       </c>
       <c r="J31" t="n">
-        <v>-130.82</v>
+        <v>-58.11</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1327.5</v>
+        <v>1159.27</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-124.84</v>
+        <v>-52.57</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-206.27</v>
+        <v>-133.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>2052.34</v>
+        <v>2113.12</v>
       </c>
       <c r="R31" t="n">
-        <v>-158.82</v>
+        <v>-99.05</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-207.74</v>
+        <v>-135.35</v>
       </c>
       <c r="U31" t="n">
-        <v>-145.01</v>
+        <v>-65.49</v>
       </c>
       <c r="V31" t="n">
-        <v>-20.08</v>
+        <v>100.66</v>
       </c>
       <c r="W31" t="n">
-        <v>62.18</v>
+        <v>134.69</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.59</v>
+        <v>238.99</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3642,64 +3642,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-134.69</v>
+        <v>-75.95</v>
       </c>
       <c r="G32" t="n">
-        <v>-40.54</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-48.92</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-83.96</v>
+        <v>-52.13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>250.61</v>
+        <v>300.85</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-147.25</v>
+        <v>-53.75</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-168.92</v>
+        <v>-79.67</v>
       </c>
       <c r="Q32" t="n">
-        <v>-21.46</v>
+        <v>179.88</v>
       </c>
       <c r="R32" t="n">
-        <v>-89.72</v>
+        <v>-71.18</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-165.69</v>
+        <v>-75.94</v>
       </c>
       <c r="U32" t="n">
-        <v>-229.02</v>
+        <v>-128.16</v>
       </c>
       <c r="V32" t="n">
-        <v>-37.85</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-120.51</v>
+        <v>-20.89</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-57.72</v>
+        <v>36.42</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3725,61 +3725,61 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-83.07</v>
+        <v>39.71</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-107.33</v>
+        <v>-63.04</v>
       </c>
       <c r="J33" t="n">
-        <v>-173.36</v>
+        <v>-69.53</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1396.78</v>
+        <v>1075.13</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-151.67</v>
+        <v>-65.32</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-250.36</v>
+        <v>-163.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>2322</v>
+        <v>2363.02</v>
       </c>
       <c r="R33" t="n">
-        <v>-212.41</v>
+        <v>-116.57</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-250.59</v>
+        <v>-163.83</v>
       </c>
       <c r="U33" t="n">
-        <v>-103.44</v>
+        <v>-29.61</v>
       </c>
       <c r="V33" t="n">
-        <v>-41.03</v>
+        <v>183.96</v>
       </c>
       <c r="W33" t="n">
-        <v>8.48</v>
+        <v>95.73</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.01</v>
+        <v>174.53</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3805,61 +3805,61 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-60.99</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-63.29</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-100.83</v>
+        <v>-57.96</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>298.43</v>
+        <v>349.93</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-151.68</v>
+        <v>-52.16</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-173.75</v>
+        <v>-76.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.11</v>
+        <v>189.56</v>
       </c>
       <c r="R34" t="n">
-        <v>-104.99</v>
+        <v>-72.09</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-171.48</v>
+        <v>-73.68</v>
       </c>
       <c r="U34" t="n">
-        <v>-126.27</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-58.46</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-122.69</v>
+        <v>-21.15</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-74.34</v>
+        <v>33.59</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3885,61 +3885,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-58.61</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-15.61</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>273.74</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-46.48</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>76.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-20.68</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-48.85</v>
+      </c>
+      <c r="U35" t="n">
         <v>-59.09</v>
       </c>
-      <c r="J35" t="n">
-        <v>-107.03</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>213.64</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-154.44</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>-165.65</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-81.25</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-114.82</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>-167.88</v>
-      </c>
-      <c r="U35" t="n">
-        <v>-181.04</v>
-      </c>
       <c r="V35" t="n">
-        <v>-58.82</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-81.21</v>
+        <v>42.55</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-97.16</v>
+        <v>14.69</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
